--- a/models/Linear/frac-0.5/feature_importance.xlsx
+++ b/models/Linear/frac-0.5/feature_importance.xlsx
@@ -453,11 +453,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>num__cos_start_hour</t>
+          <t>num__start_lat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.495209443881393</v>
+        <v>-1.598827475279118</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -466,11 +466,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cat__severity_4</t>
+          <t>cat__start_year_2018</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.37524801779126</v>
+        <v>-5.263467266226986</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.99871040844393</v>
+        <v>11.99858224524187</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -492,11 +492,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>num__cos_start_month</t>
+          <t>cat__start_year_2020</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.937275528810451</v>
+        <v>20.81470247614142</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -505,11 +505,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cat__timezone_us/eastern</t>
+          <t>num__cos_start_hour</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.010830093524691</v>
+        <v>1.543890768813963</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -518,11 +518,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cat__start_year_2020</t>
+          <t>cat__severity_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.36774561812583</v>
+        <v>36.98410582191094</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -531,11 +531,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cat__start_year_2021</t>
+          <t>cat__severity_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.39728921626898</v>
+        <v>33.92190354267998</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -544,11 +544,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cat__timezone_us/pacific</t>
+          <t>num__description_pca2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-18.89479047795389</v>
+        <v>-3.147478173231199</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -557,11 +557,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cat__timezone_us/mountain</t>
+          <t>cat__severity_3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.08962286197646</v>
+        <v>22.53089811287592</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -570,11 +570,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cat__severity_2</t>
+          <t>num__precipitation(in)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.74718167090691</v>
+        <v>-3.332224104260029</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -583,11 +583,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>num__sin_start_lng</t>
+          <t>cat__start_year_2021</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.16770252797038</v>
+        <v>29.39253535776175</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -596,11 +596,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>num__description_pca2</t>
+          <t>cat__start_year_2022</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.689277139519023</v>
+        <v>29.69310019593421</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -609,11 +609,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>num__precipitation(in)</t>
+          <t>cat__start_year_2023</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.738347094144484</v>
+        <v>38.76324537673823</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,313 +622,313 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cat__start_year_2022</t>
+          <t>num__sin_start_hour</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.81573224432964</v>
+        <v>-1.107438841869681</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2.136140279649176e-287</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>cat__start_year_2023</t>
+          <t>num__sin_start_lng</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.93253014084208</v>
+        <v>4.237615293067893</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.847281585255086e-285</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>cat__state_group_urban</t>
+          <t>num__description_pca1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-10.00065899669035</v>
+        <v>0.7523882154963586</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3.081612193354449e-190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>num__distance(mi)</t>
+          <t>cat__state_group_urban</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.680434714524575</v>
+        <v>-2.018573146500851</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2.478436869211786e-168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>cat__severity_3</t>
+          <t>num__description_pca3</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23.7244634293653</v>
+        <v>0.6756177458177116</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9.425023208666722e-154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>num__description_pca3</t>
+          <t>num__cos_start_month</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.030738299264161</v>
+        <v>0.9875641097345079</v>
       </c>
       <c r="C20" t="n">
-        <v>1.313005663157896e-214</v>
+        <v>7.368776842200468e-149</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>num__sin_start_hour</t>
+          <t>cat__start_year_2017</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.202484834732966</v>
+        <v>-3.049976454468398</v>
       </c>
       <c r="C21" t="n">
-        <v>1.103287199358639e-205</v>
+        <v>1.815486629629465e-98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>num__description_pca1</t>
+          <t>cat__timezone_us/mountain</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.780917743437887</v>
+        <v>-4.747790914402431</v>
       </c>
       <c r="C22" t="n">
-        <v>4.561944921418837e-124</v>
+        <v>2.107683785019542e-82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>num__temperature(f)</t>
+          <t>num__distance(mi)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.541409900073479</v>
+        <v>-0.5047530621193671</v>
       </c>
       <c r="C23" t="n">
-        <v>5.969456040071787e-122</v>
+        <v>1.518524219845517e-72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>num__sin_wind_angle</t>
+          <t>num__cos_start_lng</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8027440223705652</v>
+        <v>2.298245454882075</v>
       </c>
       <c r="C24" t="n">
-        <v>4.303396676196746e-119</v>
+        <v>2.413363714511863e-72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>num__cos_start_lng</t>
+          <t>cat__timezone_us/eastern</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-3.566115176335188</v>
+        <v>1.680275334524874</v>
       </c>
       <c r="C25" t="n">
-        <v>3.094406997580423e-101</v>
+        <v>3.29063924487886e-39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>cat__start_year_2018</t>
+          <t>num__sin_wind_angle</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-3.317263163080579</v>
+        <v>0.3215106573189911</v>
       </c>
       <c r="C26" t="n">
-        <v>4.773060432678051e-77</v>
+        <v>4.95792300810171e-33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>cat__start_year_2017</t>
+          <t>num__temperature(f)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-3.410746668984904</v>
+        <v>0.5346114491724605</v>
       </c>
       <c r="C27" t="n">
-        <v>3.703572805858694e-71</v>
+        <v>7.963572745434087e-26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>num__sin_start_month</t>
+          <t>num__humidity(%)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3300297393513628</v>
+        <v>-0.345738358051443</v>
       </c>
       <c r="C28" t="n">
-        <v>2.470918822372078e-14</v>
+        <v>6.326629054757585e-24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>num__start_lat</t>
+          <t>num__pressure(in)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.3986394299423309</v>
+        <v>-0.2987897725239767</v>
       </c>
       <c r="C29" t="n">
-        <v>3.225153089553151e-13</v>
+        <v>5.948494660114717e-19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>num__cos_wind_angle</t>
+          <t>cat__weather_group_cloudy</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2356072597371493</v>
+        <v>-0.487549538754314</v>
       </c>
       <c r="C30" t="n">
-        <v>2.63426249992257e-11</v>
+        <v>6.454496270066966e-18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>num__humidity(%)</t>
+          <t>num__cos_start_day</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.147280350279103</v>
+        <v>-0.1505818242014614</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0008629498909238214</v>
+        <v>3.516839711686592e-09</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>cat__weather_group_cloudy</t>
+          <t>num__sin_start_month</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.17437855856127</v>
+        <v>-0.1815897769537322</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01674948938177981</v>
+        <v>6.927485591816694e-08</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>num__cos_start_day</t>
+          <t>cat__weather_group_precipitation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.07667196688843535</v>
+        <v>-0.7021693968511825</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01964117671427429</v>
+        <v>5.924644175687127e-06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>num__wind_speed(mph)</t>
+          <t>num__sin_start_day</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.07504256393968679</v>
+        <v>0.0721515151527227</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03915927220069185</v>
+        <v>0.004684228581492554</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>cat__weather_group_obscured</t>
+          <t>num__cos_wind_angle</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.245222491659457</v>
+        <v>0.06989519853137757</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1298185981807914</v>
+        <v>0.0107754159701546</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>num__pressure(in)</t>
+          <t>cat__weather_group_obscured</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.06460297462858405</v>
+        <v>-1.078705105581826</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1348658415833499</v>
+        <v>0.09696434046125477</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>num__sin_start_day</t>
+          <t>cat__timezone_us/pacific</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01245040094445377</v>
+        <v>-0.4300864159620241</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7049621334781835</v>
+        <v>0.1588969335738209</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>cat__weather_group_precipitation</t>
+          <t>num__wind_speed(mph)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.02757642462608851</v>
+        <v>0.01633600441595301</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8899758155393986</v>
+        <v>0.5621008361745303</v>
       </c>
     </row>
   </sheetData>
